--- a/assets/tools/files/TOOLS_INDEX.xlsx
+++ b/assets/tools/files/TOOLS_INDEX.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\190889\Desktop\stevenbaxontwerpt\website\tools\static\tools\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4655AEC1-D812-430B-B057-D0FF90BD313A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580ADF2-6DF8-4AAC-98FB-7646530BC52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{5D2FF3CF-9CA4-491D-89C6-13A88F1D3E68}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D2FF3CF-9CA4-491D-89C6-13A88F1D3E68}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t xml:space="preserve">Inhoudsopgave Tools </t>
   </si>
@@ -175,9 +174,6 @@
     <t>E2</t>
   </si>
   <si>
-    <t xml:space="preserve">Omrekenen </t>
-  </si>
-  <si>
     <t xml:space="preserve">Logboek:  </t>
   </si>
   <si>
@@ -190,13 +186,54 @@
     <t>ook koeling vatberekening, expansievat plaatje</t>
   </si>
   <si>
-    <t xml:space="preserve">Bouwjaar klopt niet </t>
-  </si>
-  <si>
     <t>Expansievat</t>
   </si>
   <si>
     <t xml:space="preserve">Buffervat </t>
+  </si>
+  <si>
+    <r>
+      <t>Q=mc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ΔT</t>
+    </r>
+  </si>
+  <si>
+    <t>standaard water.  slides met kW en delta T en flow. Ouput is flow of kW</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weergegevens alleen van de Bilt2023 nu. </t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slides met Flow m3/s en diameter DN m2 en lengte pijp m voor bepalen flow m/s en drukval Pa </t>
+  </si>
+  <si>
+    <t>Ondersteunend verbeteren om lijn te kunnen trekken tussen twee punten en KJ verschil bepalen.</t>
+  </si>
+  <si>
+    <t>Drukverschil Leiding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">draaddikte in mm bepalen die nodig is. </t>
+  </si>
+  <si>
+    <t>U = IR en 3-fase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cos phi, wortel 3 en uitleg </t>
   </si>
 </sst>
 </file>
@@ -238,15 +275,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +336,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -326,11 +367,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -358,20 +398,44 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -806,26 +870,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9161C8-7218-4B58-9B59-9793D12A4068}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="B2:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="86" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="26.25" x14ac:dyDescent="0.4">
@@ -834,20 +898,14 @@
       </c>
       <c r="E2" s="13">
         <f ca="1">TODAY()</f>
-        <v>45483</v>
-      </c>
-      <c r="F2" s="22" t="s">
+        <v>45511</v>
+      </c>
+      <c r="F2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
       <c r="I2" s="3"/>
-      <c r="K2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
@@ -873,10 +931,14 @@
         <v>19</v>
       </c>
       <c r="J3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
@@ -905,10 +967,12 @@
         <v>7</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
@@ -931,12 +995,16 @@
         <v>10</v>
       </c>
       <c r="I5" s="18">
-        <f t="shared" ref="I5:I12" si="0">SUM(F5:H5)/3</f>
+        <f t="shared" ref="I5:I13" si="0">SUM(F5:H5)/3</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="J5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="4"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
@@ -962,20 +1030,28 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="J6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
@@ -991,7 +1067,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="17">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="17">
         <v>10</v>
@@ -1001,11 +1077,17 @@
       </c>
       <c r="I8" s="18">
         <f t="shared" si="0"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
@@ -1013,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>23</v>
@@ -1026,10 +1108,14 @@
         <v>0</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
@@ -1049,7 +1135,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
@@ -1057,7 +1149,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>21</v>
@@ -1070,63 +1162,89 @@
         <v>0</v>
       </c>
       <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="17">
+        <v>7</v>
+      </c>
+      <c r="G12" s="17">
+        <v>9</v>
+      </c>
+      <c r="H12" s="17">
+        <v>9</v>
+      </c>
+      <c r="I12" s="18">
+        <f t="shared" ref="I12" si="1">SUM(F12:H12)/3</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>21</v>
@@ -1136,19 +1254,33 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1158,8 +1290,10 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1169,8 +1303,10 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1180,37 +1316,52 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:I16">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="F4:I17">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1221,13 +1372,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J4:K10">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:K13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{F40E63EC-CEA6-4575-8F34-ED3C53AFB95F}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{F40E63EC-CEA6-4575-8F34-ED3C53AFB95F}">
             <xm:f>NOT(ISERROR(SEARCH(Blad2!$B$10,E1)))</xm:f>
             <xm:f>Blad2!$B$10</xm:f>
             <x14:dxf>
@@ -1238,7 +1399,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{00524967-9553-41FD-878F-5FC811AC118A}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{00524967-9553-41FD-878F-5FC811AC118A}">
             <xm:f>NOT(ISERROR(SEARCH(Blad2!$B$9,E1)))</xm:f>
             <xm:f>Blad2!$B$9</xm:f>
             <x14:dxf>
@@ -1249,7 +1410,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{C4AF6E18-4855-4A4A-87DA-3531004B7FD4}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{C4AF6E18-4855-4A4A-87DA-3531004B7FD4}">
             <xm:f>NOT(ISERROR(SEARCH(Blad2!$B$8,E1)))</xm:f>
             <xm:f>Blad2!$B$8</xm:f>
             <x14:dxf>
@@ -1260,7 +1421,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{DBDF9FF9-CA8D-486C-B321-836FE762B877}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{DBDF9FF9-CA8D-486C-B321-836FE762B877}">
             <xm:f>NOT(ISERROR(SEARCH(Blad2!$B$7,E1)))</xm:f>
             <xm:f>Blad2!$B$7</xm:f>
             <x14:dxf>
@@ -1271,7 +1432,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{5AF7BFAE-00CE-4B8A-8160-A718FFA587E9}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{5AF7BFAE-00CE-4B8A-8160-A718FFA587E9}">
             <xm:f>NOT(ISERROR(SEARCH(Blad2!$B$6,E1)))</xm:f>
             <xm:f>Blad2!$B$6</xm:f>
             <x14:dxf>
@@ -1282,7 +1443,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{6B738A99-92D7-4866-967A-CC518609B75E}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{6B738A99-92D7-4866-967A-CC518609B75E}">
             <xm:f>NOT(ISERROR(SEARCH(Blad2!$B$5,E1)))</xm:f>
             <xm:f>Blad2!$B$5</xm:f>
             <x14:dxf>
@@ -1293,7 +1454,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{2191932A-726D-4E7F-A4B8-BB3565F80B41}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{2191932A-726D-4E7F-A4B8-BB3565F80B41}">
             <xm:f>NOT(ISERROR(SEARCH(Blad2!$B$4,E1)))</xm:f>
             <xm:f>Blad2!$B$4</xm:f>
             <x14:dxf>
@@ -1304,7 +1465,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{96F7ACB4-F407-428B-B507-37F02A4CE702}">
+          <x14:cfRule type="containsText" priority="11" operator="containsText" id="{96F7ACB4-F407-428B-B507-37F02A4CE702}">
             <xm:f>NOT(ISERROR(SEARCH(Blad2!$B$3,E1)))</xm:f>
             <xm:f>Blad2!$B$3</xm:f>
             <x14:dxf>
@@ -1325,7 +1486,7 @@
           <x14:formula1>
             <xm:f>Blad2!$B$3:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E12 E14:E15</xm:sqref>
+          <xm:sqref>E15:E16 E4:E13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1338,7 +1499,7 @@
   <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,11 +1579,11 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="20">
+      <c r="B13" s="19">
         <v>45471</v>
       </c>
     </row>
